--- a/biology/Botanique/Bugle_rampante/Bugle_rampante.xlsx
+++ b/biology/Botanique/Bugle_rampante/Bugle_rampante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ajuga reptans
-La bugle rampante (Ajuga reptans) est une plante vivace de la famille des Lamiacées qui pousse dans les endroits frais[2]. C'est une plante qui émet de longs stolons feuillés[2].
+La bugle rampante (Ajuga reptans) est une plante vivace de la famille des Lamiacées qui pousse dans les endroits frais. C'est une plante qui émet de longs stolons feuillés.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vulgaire de la bugle « provient du latin médiéval bugula, peut-être dérivé de bugillo, qui désignait une plante indéterminée[3] ».
-Le nom botanique Ajuga a deux origines possibles : tiré du grec a, privatif et du latin jugum, joug, en référence à la corolle qui semble dépourvue de lèvre supérieure ; déformation du latin abigere, chasser, allusion aux prétendues vertus de ces plantes qui faciliteraient l'accouchement. L'épithète spécifique reptans fait référence au stolon rampant[4].
-Cette bugle porte également des noms vernaculaires, Petite Consoude, Consoude moyenne, Herbe de Saint-Laurent, Herbe au charpentier, Herbe à la coupasse, cette plante étant connue pour ses vertus cicatrisantes et astringentes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vulgaire de la bugle « provient du latin médiéval bugula, peut-être dérivé de bugillo, qui désignait une plante indéterminée ».
+Le nom botanique Ajuga a deux origines possibles : tiré du grec a, privatif et du latin jugum, joug, en référence à la corolle qui semble dépourvue de lèvre supérieure ; déformation du latin abigere, chasser, allusion aux prétendues vertus de ces plantes qui faciliteraient l'accouchement. L'épithète spécifique reptans fait référence au stolon rampant.
+Cette bugle porte également des noms vernaculaires, Petite Consoude, Consoude moyenne, Herbe de Saint-Laurent, Herbe au charpentier, Herbe à la coupasse, cette plante étant connue pour ses vertus cicatrisantes et astringentes.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges sont partiellement pubescentes et portent des feuilles vert foncé, ovales à oblongues, spatulées d'environ 10 cm de long.
-Floraison : en mai-juin[2], fleurs bleu foncé de 1 à 2 cm sur des épis pouvant atteindre 15 cm. La lèvre inférieure de la corolle présente trois lobes tandis que la lèvre supérieure est très courte ou à peine marquée[5].
-Taille : 10 à 40 cm de haut[2]. Son étalement peut aller jusqu'à 1 m de diamètre.
-Originaire de l'Europe, du Caucase et de l'Iran, elle est très rustique. Commune en France jusque 2 000 mètres d'altitude mais plus rare en région méditerranéenne[2].
-Elle peut être confondue avec la Bugle de Genève qui préfère les sols plus secs et moins riches[2]. De plus, la Bugle de Genève est pubescentes sur chacune de ses quatre faces et ne présente pas de branches rampantes[5].
+Floraison : en mai-juin, fleurs bleu foncé de 1 à 2 cm sur des épis pouvant atteindre 15 cm. La lèvre inférieure de la corolle présente trois lobes tandis que la lèvre supérieure est très courte ou à peine marquée.
+Taille : 10 à 40 cm de haut. Son étalement peut aller jusqu'à 1 m de diamètre.
+Originaire de l'Europe, du Caucase et de l'Iran, elle est très rustique. Commune en France jusque 2 000 mètres d'altitude mais plus rare en région méditerranéenne.
+Elle peut être confondue avec la Bugle de Genève qui préfère les sols plus secs et moins riches. De plus, la Bugle de Genève est pubescentes sur chacune de ses quatre faces et ne présente pas de branches rampantes.
 			Ensemble d'inflorescences de Bugles rampantes
 			Fleur de Bugle rampante. La lèvre inférieure, présentant trois lobes, est nettement plus développée que la lèvre supérieure.
 			La tige carrée de la Bugle rampante n'est pubescente que sur deux de ses quatre faces.
@@ -585,22 +601,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pharmacopée
-Cette plante est connue pour ses vertus médicinales : sa richesse en tanins explique son utilisation depuis des siècles : usage interne (antidiarrhéique, anti-inflammatoire, antifongique) et externe (hémostatique, cicatrisant, qui l'a fait aussi appeler "herbe des charpentiers")[6],[7]. Cette réputation au Moyen Âge lui vaut le distique « Qui a la bugle et la sanicle, fait au chirurgien la nique[8] ».
-L'herbe Ajuga reptans a aussi été utilisée en médecine traditionnelle (en Autriche et dans les Balkans par exemple), en interne ; sous forme de thé/infusion, pour traiter les troubles des voies respiratoires[9], [10].
-Pharmacochimie
-En 1990, une étude a montré  qu'en culture in vitro, les cals de Bugle rampant produisent des anthocyanines (jusqu'à 2,5% du poids sec sous un cycle lumière-obscurité) et qu'il s'agit d'une des rares espèces capable d'en produire dans le noir total (1% du poids sec)[11].
-Des anthocyanines triacylées sont aussi produites par la fleur[12] ; En 1996 quatre anthocyanes différents avaient été isolées des fleurs d' Ajuga reptans (de même que de leurs cultures cellulaires), et un cinquième anthocyane a également été découvert par spectrométrie de masse HPLC. Celui qui est le plus présent (anthocyanine cyanidine 3-(di-p-coumaroyl)sophoroside-5-malonylglucoside) s'est montré plus stable que la cyanidine 3-glucoside, et aussi plus efficace pour prévenir les réactions de péroxidation. Selon M.-PiaCalcagno &amp; al. (1996), les cultures de cellules de fleurs du Bugle rampant produisent assez d'anthocyanines pour présenter un intérêt comme source de colorant alimentaire ou pour d'autres usages[13].
-Israili &amp; Lyoussi (2009) ont publié une étude ethnopharmacologique sur le genre Ajuga[14]
-Selon une étude récente (2017), la fleur contient des composés actifs potentiellement intéressants : antioxydants et antibactériens[15].
-La plante produit des phyto-ecdystéroïdes, in vitro (cultures de cellules de tissus de racines), par contre aucun ecdystéroïde n'a été observé dans les pousses cultivées en l'absence de racine[16]. Et « la concentration d'ecdystéroïdes était plus élevée dans les cultures supplémentées en hormones que dans le milieu basal et augmentait pendant la période de croissance ». Les types d'ecdystéroïdes dominants changent selon que la culture soit faite in vitro ou in vivo[16]; les ecdystéroïdes du Bugle rampant A. reptans sont donc biosynthétisés dans les racines[16],[17]. Selon la saison, les conditions environnementales, mais aussi selon les variétés (sous-espèces, dont par exemple A. reptans var. atropurpurea. ) les ecdystéroïdes peuvent varier (en termes de molécules et de quantité). Ces molécules pourraient jouer un rôle de protection contre les arthropodes en perturbant leur cycle de mues.
-Les tiges et feuilles contiennent aussi une quantité importante d'oligosaccharide (s) de la famille du raffinose et dans le phloème et les feuilles)[18] et c'est le stachyose qui est, de loin, la forme la dominante (pour rappel, les raffinoses sont des sucres impliqués dans le transport et le stockage des carbohydrates dans la plante, décomposés par nos bactéries intestinales, ils sont sources de sensation de ballonnement et de flatulences, présent dans de nombreux légumes dont le haricot)[19] ; dans les feuilles, le taux de raffinoses est plus bas en été (75 mg/g de poids frais) et le plus élevées en automne/hiver (200 mg/g de poids frais), alors que le saccharose et l'amidon ne sont que des composants mineurs. Le raffinoses pourraient expliquer la résistance au gel de cette plante[19].
-Dans les jardins
-Sur sols riches et frais, en mi-ombre, cette plante peut être cultivée comme couvre-sol et plante décorative ; de nombreux cultivars en ont été sélectionnés, dont «Catlin's Giant» qui a remporté le prix du mérite du jardin de la Royal Horticultural Society[20],[21].
-Plante alimentaire
-La Bugle rampante fait partie des plantes sauvages comestibles autrefois consommées, par exemple cuite, en Italie[22] ou dans les Balkans en Bosnie-Herzégovine. La feuille en est comestible, consommée crue (en salade, généralement) ou cuite (dans une soupe, une sauce verte, des galettes végétales...).
-Il est aussi utilisé comme fourrage pour les animaux en Australie[23].
-La plante n'a aucun effet toxique décrit chez l'humain, ni chez le chien, le chat, le cheval ou le bétail (bovins, ovins) ni chez les oiseaux[24].
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est connue pour ses vertus médicinales : sa richesse en tanins explique son utilisation depuis des siècles : usage interne (antidiarrhéique, anti-inflammatoire, antifongique) et externe (hémostatique, cicatrisant, qui l'a fait aussi appeler "herbe des charpentiers"),. Cette réputation au Moyen Âge lui vaut le distique « Qui a la bugle et la sanicle, fait au chirurgien la nique ».
+L'herbe Ajuga reptans a aussi été utilisée en médecine traditionnelle (en Autriche et dans les Balkans par exemple), en interne ; sous forme de thé/infusion, pour traiter les troubles des voies respiratoires, .
 </t>
         </is>
       </c>
@@ -626,12 +634,23 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pollen</t>
+          <t>Utilisations</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La morphologie du pollen des plantes du genre Ajuga a été étudiée ; elle présente une valeur taxinomique[25].
+          <t>Pharmacochimie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, une étude a montré  qu'en culture in vitro, les cals de Bugle rampant produisent des anthocyanines (jusqu'à 2,5% du poids sec sous un cycle lumière-obscurité) et qu'il s'agit d'une des rares espèces capable d'en produire dans le noir total (1% du poids sec).
+Des anthocyanines triacylées sont aussi produites par la fleur ; En 1996 quatre anthocyanes différents avaient été isolées des fleurs d' Ajuga reptans (de même que de leurs cultures cellulaires), et un cinquième anthocyane a également été découvert par spectrométrie de masse HPLC. Celui qui est le plus présent (anthocyanine cyanidine 3-(di-p-coumaroyl)sophoroside-5-malonylglucoside) s'est montré plus stable que la cyanidine 3-glucoside, et aussi plus efficace pour prévenir les réactions de péroxidation. Selon M.-PiaCalcagno &amp; al. (1996), les cultures de cellules de fleurs du Bugle rampant produisent assez d'anthocyanines pour présenter un intérêt comme source de colorant alimentaire ou pour d'autres usages.
+Israili &amp; Lyoussi (2009) ont publié une étude ethnopharmacologique sur le genre Ajuga
+Selon une étude récente (2017), la fleur contient des composés actifs potentiellement intéressants : antioxydants et antibactériens.
+La plante produit des phyto-ecdystéroïdes, in vitro (cultures de cellules de tissus de racines), par contre aucun ecdystéroïde n'a été observé dans les pousses cultivées en l'absence de racine. Et « la concentration d'ecdystéroïdes était plus élevée dans les cultures supplémentées en hormones que dans le milieu basal et augmentait pendant la période de croissance ». Les types d'ecdystéroïdes dominants changent selon que la culture soit faite in vitro ou in vivo; les ecdystéroïdes du Bugle rampant A. reptans sont donc biosynthétisés dans les racines,. Selon la saison, les conditions environnementales, mais aussi selon les variétés (sous-espèces, dont par exemple A. reptans var. atropurpurea. ) les ecdystéroïdes peuvent varier (en termes de molécules et de quantité). Ces molécules pourraient jouer un rôle de protection contre les arthropodes en perturbant leur cycle de mues.
+Les tiges et feuilles contiennent aussi une quantité importante d'oligosaccharide (s) de la famille du raffinose et dans le phloème et les feuilles) et c'est le stachyose qui est, de loin, la forme la dominante (pour rappel, les raffinoses sont des sucres impliqués dans le transport et le stockage des carbohydrates dans la plante, décomposés par nos bactéries intestinales, ils sont sources de sensation de ballonnement et de flatulences, présent dans de nombreux légumes dont le haricot) ; dans les feuilles, le taux de raffinoses est plus bas en été (75 mg/g de poids frais) et le plus élevées en automne/hiver (200 mg/g de poids frais), alors que le saccharose et l'amidon ne sont que des composants mineurs. Le raffinoses pourraient expliquer la résistance au gel de cette plante.
 </t>
         </is>
       </c>
@@ -657,14 +676,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie</t>
+          <t>Utilisations</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">La bugle rampante est appréciée de nombreux papillons de jour en voie de régression : elle est la principale source de nectar pour le Grand collier argenté et le Petit collier argenté.
-C'est aussi une source (secondaire) de nectar pour le Citron, l'Hespérie du brome,Argus bleu, Azuré du serpolet, Azuré des nerpruns, Point-de-Hongrie, Lucine, Piéride de Réal, Piéride du chou, Piéride du navet, Piéride de la rave, Hespérie de la mauve, Mélitée du mélampyre, Leptidea sinapis, Sylvaine, Damier de la succise, Aurore, Belle-Dame[26].
-Cette plante est naturellement consommée par certains rongeurs forestiers[27].
+          <t>Dans les jardins</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur sols riches et frais, en mi-ombre, cette plante peut être cultivée comme couvre-sol et plante décorative ; de nombreux cultivars en ont été sélectionnés, dont «Catlin's Giant» qui a remporté le prix du mérite du jardin de la Royal Horticultural Society,.
 </t>
         </is>
       </c>
@@ -690,10 +713,119 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plante alimentaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bugle rampante fait partie des plantes sauvages comestibles autrefois consommées, par exemple cuite, en Italie ou dans les Balkans en Bosnie-Herzégovine. La feuille en est comestible, consommée crue (en salade, généralement) ou cuite (dans une soupe, une sauce verte, des galettes végétales...).
+Il est aussi utilisé comme fourrage pour les animaux en Australie.
+La plante n'a aucun effet toxique décrit chez l'humain, ni chez le chien, le chat, le cheval ou le bétail (bovins, ovins) ni chez les oiseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La morphologie du pollen des plantes du genre Ajuga a été étudiée ; elle présente une valeur taxinomique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bugle rampante est appréciée de nombreux papillons de jour en voie de régression : elle est la principale source de nectar pour le Grand collier argenté et le Petit collier argenté.
+C'est aussi une source (secondaire) de nectar pour le Citron, l'Hespérie du brome,Argus bleu, Azuré du serpolet, Azuré des nerpruns, Point-de-Hongrie, Lucine, Piéride de Réal, Piéride du chou, Piéride du navet, Piéride de la rave, Hespérie de la mauve, Mélitée du mélampyre, Leptidea sinapis, Sylvaine, Damier de la succise, Aurore, Belle-Dame.
+Cette plante est naturellement consommée par certains rongeurs forestiers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Photos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Bugle rampante
@@ -703,31 +835,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bugle_rampante</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bugle_rampante</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jan Kops - Flora Batava, Volume 16, (1800)
@@ -738,31 +872,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bugle_rampante</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bugle_rampante</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_rampante</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>L'espèce sauvage est parfois envahissante, et des variétés horticoles en sont cultivées, qui forment d'excellents couvre-sol. Leurs feuilles et fleurs sont de diverses couleurs. Les principales variétés sont :
 A. reptans 'Burgundi Glow' : feuilles vert argenté ou vert doré avec du rouge vineux foncé ;
